--- a/pred_ohlcv/54_21/2019-10-16 HDAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-16 HDAC ohlcv.xlsx
@@ -1068,7 +1068,7 @@
         <v>-100167.5101</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-100149.5101</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-61077.35040000002</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-61077.35040000002</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>1520360.32009627</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>1520360.32009627</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>1942490.98219627</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>1890950.05829627</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>1954654.55689627</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>2301895.30217757</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>2479395.63229627</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>2479395.63229627</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>2479395.63229627</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>2479395.63229627</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>2515285.35181585</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>2368909.556615849</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>2399352.44309523</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>2276359.998295229</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>2311172.525195229</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>2286154.722013929</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>2319270.278513929</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>2074511.096313929</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>2082765.579013929</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>2082765.579013929</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>2163649.797013929</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>2153496.995013929</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>2131700.448613929</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>2063735.383013929</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>2063735.383013929</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>2063735.383013929</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>2113745.409513929</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>2113745.409513929</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>2121692.578815509</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>2121692.578815509</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>2121692.578815509</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>2132995.876115509</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>2355632.235480439</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>2462214.646480439</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>2924078.581758819</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>3670262.735171458</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>3547350.740571458</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>3769617.176571459</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>3769617.176571459</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>3761854.715971459</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>3761854.715971459</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>3778039.295371459</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>3778080.991571459</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>3778080.991571459</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>3778080.991571459</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>3778080.991571459</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>3772697.683471459</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>3772697.683471459</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>3812155.890471459</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>3812155.890471459</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>3691263.587571459</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>3691263.587571459</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>3691263.587571459</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>3678480.765671459</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>3543759.706671459</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>3496990.024671459</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>3440548.173071459</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>3440587.886571459</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>3076776.302656419</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>3074421.969756419</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>2948842.300156419</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>2861801.092156419</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>2861826.092156419</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>2861783.092156419</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>2896935.700702128</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>2873726.660602129</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>2873726.660602129</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>3008475.886002128</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>3008460.886002128</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>3008460.886002128</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>3008460.886002128</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-16 HDAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-16 HDAC ohlcv.xlsx
@@ -1146,7 +1146,7 @@
         <v>-100199.5101</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>1520360.32009627</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>1520360.32009627</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>1942490.98219627</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>1890950.05829627</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>1954654.55689627</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>2301895.30217757</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>2479395.63229627</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>2479395.63229627</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>2479395.63229627</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>2479395.63229627</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>2515285.35181585</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>2368909.556615849</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>2399352.44309523</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>2276359.998295229</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>2311172.525195229</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>2286154.722013929</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>2319270.278513929</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>2074511.096313929</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>2082765.579013929</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>2082765.579013929</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>2163649.797013929</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>2153496.995013929</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>2131700.448613929</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>2063735.383013929</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>2063735.383013929</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>2063735.383013929</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>2113745.409513929</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>2113745.409513929</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>2121692.578815509</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>2121692.578815509</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>2121692.578815509</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>2132995.876115509</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>2355632.235480439</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>2462214.646480439</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>2924078.581758819</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>3670262.735171458</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>3670262.735171458</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>3670262.735171458</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>3547350.740571458</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>3769617.176571459</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>3769617.176571459</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>3769617.176571459</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>3769617.176571459</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>3761854.715971459</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>3761854.715971459</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>3778039.295371459</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>3778080.991571459</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>3778080.991571459</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>3778080.991571459</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>3778080.991571459</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>3772697.683471459</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>3772697.683471459</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>3812155.890471459</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>3812155.890471459</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>3691263.587571459</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>3691263.587571459</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>3691263.587571459</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>3678480.765671459</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>3543759.706671459</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>3496990.024671459</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>3440548.173071459</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>3440587.886571459</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>3440587.886571459</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>3440587.886571459</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>3456763.036071459</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>3076776.302656419</v>
       </c>
       <c r="H630">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>3074421.969756419</v>
       </c>
       <c r="H631">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>2948842.300156419</v>
       </c>
       <c r="H632">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>2861801.092156419</v>
       </c>
       <c r="H633">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>2861826.092156419</v>
       </c>
       <c r="H634">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>2861783.092156419</v>
       </c>
       <c r="H635">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>2896935.700702128</v>
       </c>
       <c r="H636">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>2873726.660602129</v>
       </c>
       <c r="H637">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>2873726.660602129</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>3008475.886002128</v>
       </c>
       <c r="H639">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>3008460.886002128</v>
       </c>
       <c r="H640">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>3008460.886002128</v>
       </c>
       <c r="H642">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>3008460.886002128</v>
       </c>
       <c r="H643">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
